--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Comp-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Comp-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.653906</v>
+        <v>1.254529666666667</v>
       </c>
       <c r="H2">
-        <v>1.961718</v>
+        <v>3.763589</v>
       </c>
       <c r="I2">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="J2">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>20.26560190834667</v>
+        <v>43.96737535652345</v>
       </c>
       <c r="R2">
-        <v>182.39041717512</v>
+        <v>395.706378208711</v>
       </c>
       <c r="S2">
-        <v>0.002411522274785169</v>
+        <v>0.004859099013283382</v>
       </c>
       <c r="T2">
-        <v>0.002411522274785168</v>
+        <v>0.00485909901328338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.653906</v>
+        <v>1.254529666666667</v>
       </c>
       <c r="H3">
-        <v>1.961718</v>
+        <v>3.763589</v>
       </c>
       <c r="I3">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="J3">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
-        <v>19.560466078714</v>
+        <v>37.52708338748034</v>
       </c>
       <c r="R3">
-        <v>176.044194708426</v>
+        <v>337.743750487323</v>
       </c>
       <c r="S3">
-        <v>0.002327614046073346</v>
+        <v>0.004147343624241465</v>
       </c>
       <c r="T3">
-        <v>0.002327614046073346</v>
+        <v>0.004147343624241464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.653906</v>
+        <v>1.254529666666667</v>
       </c>
       <c r="H4">
-        <v>1.961718</v>
+        <v>3.763589</v>
       </c>
       <c r="I4">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="J4">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>3.958561214695999</v>
+        <v>11.18002673908744</v>
       </c>
       <c r="R4">
-        <v>35.627050932264</v>
+        <v>100.620240651787</v>
       </c>
       <c r="S4">
-        <v>0.000471052307674529</v>
+        <v>0.001235571977082353</v>
       </c>
       <c r="T4">
-        <v>0.0004710523076745289</v>
+        <v>0.001235571977082353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.653906</v>
+        <v>1.254529666666667</v>
       </c>
       <c r="H5">
-        <v>1.961718</v>
+        <v>3.763589</v>
       </c>
       <c r="I5">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="J5">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>12.522442451508</v>
+        <v>22.28402438043278</v>
       </c>
       <c r="R5">
-        <v>112.701982063572</v>
+        <v>200.556219423895</v>
       </c>
       <c r="S5">
-        <v>0.001490118529077067</v>
+        <v>0.002462741521433077</v>
       </c>
       <c r="T5">
-        <v>0.001490118529077067</v>
+        <v>0.002462741521433076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>288.359337</v>
       </c>
       <c r="I6">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234517</v>
       </c>
       <c r="J6">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>2978.907024453454</v>
+        <v>3368.700250595174</v>
       </c>
       <c r="R6">
-        <v>26810.16322008109</v>
+        <v>30318.30225535657</v>
       </c>
       <c r="S6">
-        <v>0.354477536688649</v>
+        <v>0.3722953196769759</v>
       </c>
       <c r="T6">
-        <v>0.3544775366886489</v>
+        <v>0.3722953196769758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>288.359337</v>
       </c>
       <c r="I7">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234517</v>
       </c>
       <c r="J7">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234516</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
         <v>2875.256805447551</v>
@@ -883,10 +883,10 @@
         <v>25877.31124902796</v>
       </c>
       <c r="S7">
-        <v>0.3421435920543104</v>
+        <v>0.3177619176263525</v>
       </c>
       <c r="T7">
-        <v>0.3421435920543103</v>
+        <v>0.3177619176263524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>288.359337</v>
       </c>
       <c r="I8">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234517</v>
       </c>
       <c r="J8">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>581.8818440487639</v>
+        <v>856.5932938281857</v>
       </c>
       <c r="R8">
-        <v>5236.936596438876</v>
+        <v>7709.339644453672</v>
       </c>
       <c r="S8">
-        <v>0.06924151745222669</v>
+        <v>0.09466727533937595</v>
       </c>
       <c r="T8">
-        <v>0.06924151745222668</v>
+        <v>0.09466727533937593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>288.359337</v>
       </c>
       <c r="I9">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234517</v>
       </c>
       <c r="J9">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>1840.714721961822</v>
+        <v>1707.361376609782</v>
       </c>
       <c r="R9">
-        <v>16566.4324976564</v>
+        <v>15366.25238948804</v>
       </c>
       <c r="S9">
-        <v>0.2190373902345181</v>
+        <v>0.1886907715807473</v>
       </c>
       <c r="T9">
-        <v>0.219037390234518</v>
+        <v>0.1886907715807473</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.585629</v>
+        <v>1.151276666666667</v>
       </c>
       <c r="H10">
-        <v>1.756887</v>
+        <v>3.45383</v>
       </c>
       <c r="I10">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="J10">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>18.14958752478666</v>
+        <v>40.34867782524112</v>
       </c>
       <c r="R10">
-        <v>163.34628772308</v>
+        <v>363.1381004271701</v>
       </c>
       <c r="S10">
-        <v>0.002159725370711025</v>
+        <v>0.004459174990959039</v>
       </c>
       <c r="T10">
-        <v>0.002159725370711024</v>
+        <v>0.004459174990959039</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.585629</v>
+        <v>1.151276666666667</v>
       </c>
       <c r="H11">
-        <v>1.756887</v>
+        <v>3.45383</v>
       </c>
       <c r="I11">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="J11">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>17.518077811201</v>
+        <v>34.43844862342333</v>
       </c>
       <c r="R11">
-        <v>157.662700300809</v>
+        <v>309.94603761081</v>
       </c>
       <c r="S11">
-        <v>0.00208457834335193</v>
+        <v>0.00380600002543155</v>
       </c>
       <c r="T11">
-        <v>0.00208457834335193</v>
+        <v>0.003806000025431549</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.585629</v>
+        <v>1.151276666666667</v>
       </c>
       <c r="H12">
-        <v>1.756887</v>
+        <v>3.45383</v>
       </c>
       <c r="I12">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="J12">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>3.545231647363999</v>
+        <v>10.25986412232111</v>
       </c>
       <c r="R12">
-        <v>31.90708482627599</v>
+        <v>92.33877710089</v>
       </c>
       <c r="S12">
-        <v>0.0004218678095798582</v>
+        <v>0.00113387927364182</v>
       </c>
       <c r="T12">
-        <v>0.0004218678095798581</v>
+        <v>0.00113387927364182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.585629</v>
+        <v>1.151276666666667</v>
       </c>
       <c r="H13">
-        <v>1.756887</v>
+        <v>3.45383</v>
       </c>
       <c r="I13">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="J13">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N13">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q13">
-        <v>11.214923017122</v>
+        <v>20.44995665729445</v>
       </c>
       <c r="R13">
-        <v>100.934307154098</v>
+        <v>184.04960991565</v>
       </c>
       <c r="S13">
-        <v>0.001334529158724455</v>
+        <v>0.002260047669650221</v>
       </c>
       <c r="T13">
-        <v>0.001334529158724455</v>
+        <v>0.00226004766965022</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2341223333333333</v>
+        <v>0.2192983333333333</v>
       </c>
       <c r="H14">
-        <v>0.702367</v>
+        <v>0.6578949999999999</v>
       </c>
       <c r="I14">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="J14">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N14">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O14">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P14">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q14">
-        <v>7.255828827364444</v>
+        <v>7.685726685400555</v>
       </c>
       <c r="R14">
-        <v>65.30245944628</v>
+        <v>69.17154016860499</v>
       </c>
       <c r="S14">
-        <v>0.0008634134292360241</v>
+        <v>0.000849395867971787</v>
       </c>
       <c r="T14">
-        <v>0.0008634134292360236</v>
+        <v>0.0008493958679717866</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2341223333333333</v>
+        <v>0.2192983333333333</v>
       </c>
       <c r="H15">
-        <v>0.702367</v>
+        <v>0.6578949999999999</v>
       </c>
       <c r="I15">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="J15">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q15">
-        <v>7.003364335907666</v>
+        <v>6.559930036251665</v>
       </c>
       <c r="R15">
-        <v>63.03027902316899</v>
+        <v>59.03937032626499</v>
       </c>
       <c r="S15">
-        <v>0.0008333712055955025</v>
+        <v>0.0007249773111969289</v>
       </c>
       <c r="T15">
-        <v>0.0008333712055955022</v>
+        <v>0.0007249773111969287</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2341223333333333</v>
+        <v>0.2192983333333333</v>
       </c>
       <c r="H16">
-        <v>0.702367</v>
+        <v>0.6578949999999999</v>
       </c>
       <c r="I16">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="J16">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N16">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O16">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P16">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q16">
-        <v>1.417310115257333</v>
+        <v>1.954327024420555</v>
       </c>
       <c r="R16">
-        <v>12.755791037316</v>
+        <v>17.588943219785</v>
       </c>
       <c r="S16">
-        <v>0.0001686540043902518</v>
+        <v>0.000215984430250645</v>
       </c>
       <c r="T16">
-        <v>0.0001686540043902517</v>
+        <v>0.0002159844302506449</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2341223333333333</v>
+        <v>0.2192983333333333</v>
       </c>
       <c r="H17">
-        <v>0.702367</v>
+        <v>0.6578949999999999</v>
       </c>
       <c r="I17">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="J17">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N17">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q17">
-        <v>4.483493722002001</v>
+        <v>3.895363765747221</v>
       </c>
       <c r="R17">
-        <v>40.351443498018</v>
+        <v>35.05827389172499</v>
       </c>
       <c r="S17">
-        <v>0.0005335170910968205</v>
+        <v>0.0004305000714061004</v>
       </c>
       <c r="T17">
-        <v>0.0005335170910968203</v>
+        <v>0.0004305000714061002</v>
       </c>
     </row>
   </sheetData>
